--- a/DRE/IPT_ACRM_CHECKLIST_150514.xlsx
+++ b/DRE/IPT_ACRM_CHECKLIST_150514.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Funcionalidades CRM</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Datos de contacto con campos multi-registro (email, teléfono)</t>
+  </si>
+  <si>
+    <t>Tooltips o íconos de ayuda en las pantallas de gestión de BBDD así como los formularios de tareas de WF</t>
+  </si>
+  <si>
+    <t>¿Cómo funcionan los emails de WF? A IPT le interesaría que existiera la posibilidad de enviar formularios avanzados en los email.</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="57.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,86 +510,96 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
